--- a/auto/new_data/3_主要國家工業生產增加率.xlsx
+++ b/auto/new_data/3_主要國家工業生產增加率.xlsx
@@ -6143,7 +6143,7 @@
         <v>14.48</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="D161" t="n">
         <v>-1.8</v>
@@ -6178,7 +6178,7 @@
         <v>15.73</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D162" t="n">
         <v>1.1</v>
@@ -6250,13 +6250,13 @@
         <v>13.01</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D164" t="n">
         <v>2.9</v>
       </c>
       <c r="E164" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="F164" t="n">
         <v>5.1</v>
@@ -6282,15 +6282,17 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>13.42</v>
+        <v>12.54</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="D165" t="n">
         <v>-4.9</v>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="n">
+        <v>-6.4</v>
+      </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">

--- a/auto/new_data/3_主要國家工業生產增加率.xlsx
+++ b/auto/new_data/3_主要國家工業生產增加率.xlsx
@@ -493,456 +493,454 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>202309</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-6.67</v>
+        <v>-2.16</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2</v>
+        <v>-0.9</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.5</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.4</v>
+        <v>-0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.4</v>
+        <v>5.9</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.4</v>
-      </c>
+        <v>6.8</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.16</v>
+        <v>-1.8</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>-1.6</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5</v>
+        <v>-4.4</v>
       </c>
       <c r="F3" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8</v>
+        <v>0.1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.8</v>
+        <v>-3.83</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-7.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I4" t="n">
         <v>-1.6</v>
       </c>
-      <c r="E4" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>4.1</v>
+      </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.83</v>
+        <v>15.61</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.6</v>
+        <v>-3.9</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.8</v>
+        <v>1.1</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.3</v>
+        <v>12.9</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.8</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.61</v>
+        <v>-1.31</v>
       </c>
       <c r="C6" t="n">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.5</v>
+        <v>-3.9</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.9</v>
+        <v>-1.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>12.9</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.31</v>
+        <v>4.2</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.9</v>
+        <v>-6.2</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.9</v>
+        <v>-14.3</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>-3.8</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>-7.1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>-8.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.8</v>
+      </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.2</v>
+        <v>14.48</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.2</v>
+        <v>-1.8</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.3</v>
+        <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.9</v>
+        <v>6.5</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.1</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>-8.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.8</v>
-      </c>
+        <v>-0.8</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.48</v>
+        <v>15.73</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E9" t="n">
-        <v>7.5</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>6.5</v>
+        <v>-3.4</v>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>-0.7</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.2</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.73</v>
+        <v>12.82</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.1</v>
+        <v>-7.9</v>
       </c>
       <c r="E10" t="n">
-        <v>-9.6</v>
+        <v>-8.4</v>
       </c>
       <c r="F10" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I10" t="n">
         <v>-3.4</v>
       </c>
-      <c r="G10" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.6</v>
+      </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.82</v>
+        <v>13.01</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.9</v>
+        <v>2.9</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.300000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.1</v>
+        <v>6.3</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.6</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.01</v>
+        <v>12.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.9</v>
+        <v>-4.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5</v>
+        <v>-6.5</v>
       </c>
       <c r="F12" t="n">
-        <v>6.3</v>
+        <v>-1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>-2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>22.9</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.54</v>
+        <v>11.15</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.9</v>
+        <v>-2.6</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.4</v>
+        <v>-4.6</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.9</v>
+        <v>-1.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>-1.4</v>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.22</v>
+        <v>8.85</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.8</v>
+        <v>1.6</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-1.3</v>
+        <v>6.3</v>
       </c>
       <c r="I14" t="n">
-        <v>9.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>

--- a/auto/new_data/3_主要國家工業生產增加率.xlsx
+++ b/auto/new_data/3_主要國家工業生產增加率.xlsx
@@ -493,454 +493,442 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>202310</t>
+          <t>202311</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.16</v>
+        <v>-1.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9</v>
+        <v>-1.6</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5</v>
+        <v>-4.4</v>
       </c>
       <c r="F2" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6.8</v>
+        <v>0.1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>202311</t>
+          <t>202312</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.8</v>
+        <v>-3.83</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-7.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I3" t="n">
         <v>-1.6</v>
       </c>
-      <c r="E3" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>4.1</v>
+      </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>202312</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3.83</v>
+        <v>15.61</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.6</v>
+        <v>-3.9</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.7</v>
+        <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
-        <v>6.3</v>
+        <v>12.9</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.8</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>202402</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.61</v>
+        <v>-1.31</v>
       </c>
       <c r="C5" t="n">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.5</v>
+        <v>-3.9</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.9</v>
+        <v>-1.9</v>
       </c>
       <c r="F5" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>12.9</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>202402</t>
+          <t>202403</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.31</v>
+        <v>4.2</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.9</v>
+        <v>-6.2</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.9</v>
+        <v>-14.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>-3.8</v>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>-7.1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>-8.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.8</v>
+      </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>202403</t>
+          <t>202404</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.2</v>
+        <v>14.48</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.2</v>
+        <v>-1.8</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.3</v>
+        <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.8</v>
+        <v>6.5</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.1</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.8</v>
-      </c>
+        <v>-0.8</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>202404</t>
+          <t>202405</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.48</v>
+        <v>15.73</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="n">
-        <v>7.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>6.5</v>
+        <v>-3.4</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>-0.7</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.8</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>202405</t>
+          <t>202406</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.73</v>
+        <v>12.82</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D9" t="n">
-        <v>1.1</v>
+        <v>-7.9</v>
       </c>
       <c r="E9" t="n">
-        <v>-9.800000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="F9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I9" t="n">
         <v>-3.4</v>
       </c>
-      <c r="G9" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.6</v>
+      </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>202406</t>
+          <t>202407</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.82</v>
+        <v>13.01</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.9</v>
+        <v>2.9</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.4</v>
+        <v>1.4</v>
       </c>
       <c r="F10" t="n">
-        <v>-6</v>
+        <v>6.3</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.6</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>202407</t>
+          <t>202408</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.01</v>
+        <v>12.54</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.9</v>
+        <v>-4.9</v>
       </c>
       <c r="E11" t="n">
-        <v>1.4</v>
+        <v>-6.5</v>
       </c>
       <c r="F11" t="n">
-        <v>6.3</v>
+        <v>-1.9</v>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>22.9</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>202408</t>
+          <t>202409</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.54</v>
+        <v>11.15</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.9</v>
+        <v>-2.6</v>
       </c>
       <c r="E12" t="n">
-        <v>-6.5</v>
+        <v>-4.6</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.9</v>
+        <v>-1</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.9</v>
+        <v>-1.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>-1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>22.9</v>
+        <v>9</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>202409</t>
+          <t>202410</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.15</v>
+        <v>8.81</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-4.6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-1.1</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-1.4</v>
+        <v>6.3</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>202410</t>
+          <t>202411</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.85</v>
+        <v>10.29</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.6</v>
-      </c>
+        <v>-0.9</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
